--- a/TimeZoneData.xlsx
+++ b/TimeZoneData.xlsx
@@ -14,31 +14,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>04--02--00</t>
+    <t>04--04--00</t>
   </si>
   <si>
     <t>FRIDAY</t>
   </si>
   <si>
-    <t>05--02--00</t>
+    <t>05--04--00</t>
   </si>
   <si>
     <t>MONDAY</t>
   </si>
   <si>
-    <t>08--32--00</t>
+    <t>08--34--00</t>
   </si>
   <si>
     <t>SUNDAY</t>
   </si>
   <si>
-    <t>10--02--00</t>
+    <t>10--04--00</t>
   </si>
   <si>
     <t>WEDNESDAY</t>
   </si>
   <si>
-    <t>11--02--00</t>
+    <t>11--04--00</t>
   </si>
   <si>
     <t>SATURDAY</t>

--- a/TimeZoneData.xlsx
+++ b/TimeZoneData.xlsx
@@ -14,31 +14,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>04--04--00</t>
+    <t>05--06--00</t>
   </si>
   <si>
     <t>FRIDAY</t>
   </si>
   <si>
-    <t>05--04--00</t>
+    <t>06--06--00</t>
   </si>
   <si>
     <t>MONDAY</t>
   </si>
   <si>
-    <t>08--34--00</t>
+    <t>09--36--00</t>
   </si>
   <si>
     <t>SUNDAY</t>
   </si>
   <si>
-    <t>10--04--00</t>
+    <t>11--06--00</t>
   </si>
   <si>
     <t>WEDNESDAY</t>
   </si>
   <si>
-    <t>11--04--00</t>
+    <t>12--06--00</t>
   </si>
   <si>
     <t>SATURDAY</t>
